--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Il6ra.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H2">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N2">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O2">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P2">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q2">
-        <v>1.115749730823334</v>
+        <v>1.288369172413333</v>
       </c>
       <c r="R2">
-        <v>10.04174757741</v>
+        <v>11.59532255172</v>
       </c>
       <c r="S2">
-        <v>0.005818023629059692</v>
+        <v>0.005500195439736751</v>
       </c>
       <c r="T2">
-        <v>0.005818023629059692</v>
+        <v>0.005500195439736752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H3">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.466423</v>
       </c>
       <c r="O3">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P3">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q3">
-        <v>0.4372885764899999</v>
+        <v>0.37877132058</v>
       </c>
       <c r="R3">
-        <v>3.93559718841</v>
+        <v>3.40894188522</v>
       </c>
       <c r="S3">
-        <v>0.002280220375997146</v>
+        <v>0.00161701811465636</v>
       </c>
       <c r="T3">
-        <v>0.002280220375997147</v>
+        <v>0.00161701811465636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H4">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N4">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O4">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P4">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q4">
-        <v>5.875327504073333</v>
+        <v>14.43732151248889</v>
       </c>
       <c r="R4">
-        <v>52.87794753666</v>
+        <v>129.9358936124</v>
       </c>
       <c r="S4">
-        <v>0.03063661437940819</v>
+        <v>0.06163457776334395</v>
       </c>
       <c r="T4">
-        <v>0.03063661437940819</v>
+        <v>0.06163457776334396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H5">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I5">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J5">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N5">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O5">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P5">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q5">
-        <v>0.02754800147333333</v>
+        <v>0.03805476776222223</v>
       </c>
       <c r="R5">
-        <v>0.24793201326</v>
+        <v>0.34249290986</v>
       </c>
       <c r="S5">
-        <v>0.0001436477366541281</v>
+        <v>0.00016246015861583</v>
       </c>
       <c r="T5">
-        <v>0.0001436477366541281</v>
+        <v>0.0001624601586158301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H6">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I6">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J6">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N6">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O6">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P6">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q6">
-        <v>10.53180247864667</v>
+        <v>8.888060894566665</v>
       </c>
       <c r="R6">
-        <v>94.78622230781998</v>
+        <v>79.9925480511</v>
       </c>
       <c r="S6">
-        <v>0.05491758051524714</v>
+        <v>0.03794414912057096</v>
       </c>
       <c r="T6">
-        <v>0.05491758051524714</v>
+        <v>0.03794414912057098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N7">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O7">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P7">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q7">
-        <v>2.372404583324334</v>
+        <v>3.162666019166</v>
       </c>
       <c r="R7">
-        <v>21.351641249919</v>
+        <v>28.463994172494</v>
       </c>
       <c r="S7">
-        <v>0.01237079027864538</v>
+        <v>0.01350178317558073</v>
       </c>
       <c r="T7">
-        <v>0.01237079027864537</v>
+        <v>0.01350178317558074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.392853</v>
       </c>
       <c r="I8">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J8">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.466423</v>
       </c>
       <c r="O8">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P8">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q8">
         <v>0.9298011860909999</v>
@@ -948,10 +948,10 @@
         <v>8.368210674819</v>
       </c>
       <c r="S8">
-        <v>0.004848403832473536</v>
+        <v>0.003969427671123167</v>
       </c>
       <c r="T8">
-        <v>0.004848403832473537</v>
+        <v>0.003969427671123168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.392853</v>
       </c>
       <c r="I9">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J9">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N9">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O9">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P9">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q9">
-        <v>12.49263478549933</v>
+        <v>35.44048331255333</v>
       </c>
       <c r="R9">
-        <v>112.433713069494</v>
+        <v>318.96434981298</v>
       </c>
       <c r="S9">
-        <v>0.0651422468348833</v>
+        <v>0.1512994791179582</v>
       </c>
       <c r="T9">
-        <v>0.0651422468348833</v>
+        <v>0.1512994791179582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>3.392853</v>
       </c>
       <c r="I10">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J10">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N10">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O10">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P10">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q10">
-        <v>0.05857496815933333</v>
+        <v>0.09341617561633334</v>
       </c>
       <c r="R10">
-        <v>0.527174713434</v>
+        <v>0.840745580547</v>
       </c>
       <c r="S10">
-        <v>0.0003054363710856058</v>
+        <v>0.0003988043443791474</v>
       </c>
       <c r="T10">
-        <v>0.0003054363710856058</v>
+        <v>0.0003988043443791474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.392853</v>
       </c>
       <c r="I11">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J11">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N11">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O11">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P11">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q11">
-        <v>22.39363880694867</v>
+        <v>21.818255799205</v>
       </c>
       <c r="R11">
-        <v>201.542749262538</v>
+        <v>196.364302192845</v>
       </c>
       <c r="S11">
-        <v>0.1167705589526016</v>
+        <v>0.09314463091740095</v>
       </c>
       <c r="T11">
-        <v>0.1167705589526016</v>
+        <v>0.09314463091740098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H12">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I12">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J12">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N12">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O12">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P12">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q12">
-        <v>3.237021646945556</v>
+        <v>5.336179134986667</v>
       </c>
       <c r="R12">
-        <v>29.13319482251</v>
+        <v>48.02561221487999</v>
       </c>
       <c r="S12">
-        <v>0.01687929462085523</v>
+        <v>0.02278075940678905</v>
       </c>
       <c r="T12">
-        <v>0.01687929462085523</v>
+        <v>0.02278075940678905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H13">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I13">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J13">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.466423</v>
       </c>
       <c r="O13">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P13">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q13">
-        <v>1.26866496039</v>
+        <v>1.56879849432</v>
       </c>
       <c r="R13">
-        <v>11.41798464351</v>
+        <v>14.11918644888</v>
       </c>
       <c r="S13">
-        <v>0.006615392782987653</v>
+        <v>0.0066973803076658</v>
       </c>
       <c r="T13">
-        <v>0.006615392782987654</v>
+        <v>0.006697380307665802</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H14">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I14">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J14">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N14">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O14">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P14">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q14">
-        <v>17.04554506102889</v>
+        <v>59.79662931217778</v>
       </c>
       <c r="R14">
-        <v>153.40990554926</v>
+        <v>538.1696638095999</v>
       </c>
       <c r="S14">
-        <v>0.08888317979883115</v>
+        <v>0.2552786537405243</v>
       </c>
       <c r="T14">
-        <v>0.08888317979883115</v>
+        <v>0.2552786537405243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H15">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I15">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J15">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N15">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O15">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P15">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q15">
-        <v>0.07992247242888888</v>
+        <v>0.1576155826044444</v>
       </c>
       <c r="R15">
-        <v>0.71930225186</v>
+        <v>1.41854024344</v>
       </c>
       <c r="S15">
-        <v>0.0004167519115070917</v>
+        <v>0.0006728789598780412</v>
       </c>
       <c r="T15">
-        <v>0.0004167519115070917</v>
+        <v>0.0006728789598780413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H16">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I16">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J16">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N16">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O16">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P16">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q16">
-        <v>30.55494584755778</v>
+        <v>36.81265130493333</v>
       </c>
       <c r="R16">
-        <v>274.9945126280199</v>
+        <v>331.3138617444</v>
       </c>
       <c r="S16">
-        <v>0.1593273043360279</v>
+        <v>0.1571574213101825</v>
       </c>
       <c r="T16">
-        <v>0.1593273043360279</v>
+        <v>0.1571574213101826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H17">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I17">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J17">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N17">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O17">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P17">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q17">
-        <v>1.745136849063445</v>
+        <v>1.768650089894</v>
       </c>
       <c r="R17">
-        <v>15.706231641571</v>
+        <v>15.917850809046</v>
       </c>
       <c r="S17">
-        <v>0.009099932667070078</v>
+        <v>0.007550569640457114</v>
       </c>
       <c r="T17">
-        <v>0.009099932667070078</v>
+        <v>0.007550569640457117</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H18">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I18">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J18">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.466423</v>
       </c>
       <c r="O18">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P18">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q18">
-        <v>0.6839601995189999</v>
+        <v>0.5199704747189999</v>
       </c>
       <c r="R18">
-        <v>6.155641795670999</v>
+        <v>4.679734272471</v>
       </c>
       <c r="S18">
-        <v>0.003566477761282113</v>
+        <v>0.002219813462697223</v>
       </c>
       <c r="T18">
-        <v>0.003566477761282114</v>
+        <v>0.002219813462697224</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H19">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I19">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J19">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N19">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O19">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P19">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q19">
-        <v>9.189561282805112</v>
+        <v>19.81929600431333</v>
       </c>
       <c r="R19">
-        <v>82.706051545246</v>
+        <v>178.37366403882</v>
       </c>
       <c r="S19">
-        <v>0.04791852797006664</v>
+        <v>0.08461084278935582</v>
       </c>
       <c r="T19">
-        <v>0.04791852797006664</v>
+        <v>0.08461084278935584</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H20">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I20">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J20">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N20">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O20">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P20">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q20">
-        <v>0.0430876487451111</v>
+        <v>0.05224090258033334</v>
       </c>
       <c r="R20">
-        <v>0.3877888387059999</v>
+        <v>0.470168123223</v>
       </c>
       <c r="S20">
-        <v>0.0002246784844256205</v>
+        <v>0.0002230223916347314</v>
       </c>
       <c r="T20">
-        <v>0.0002246784844256205</v>
+        <v>0.0002230223916347315</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H21">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I21">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J21">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N21">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O21">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P21">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q21">
-        <v>16.47272330416022</v>
+        <v>12.201370567345</v>
       </c>
       <c r="R21">
-        <v>148.254509737442</v>
+        <v>109.812335106105</v>
       </c>
       <c r="S21">
-        <v>0.0858962281333872</v>
+        <v>0.05208904729328546</v>
       </c>
       <c r="T21">
-        <v>0.0858962281333872</v>
+        <v>0.05208904729328549</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H22">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I22">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J22">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.097707666666667</v>
+        <v>2.796466</v>
       </c>
       <c r="N22">
-        <v>6.293123</v>
+        <v>8.389398</v>
       </c>
       <c r="O22">
-        <v>0.06202842610710742</v>
+        <v>0.05147181137853457</v>
       </c>
       <c r="P22">
-        <v>0.06202842610710741</v>
+        <v>0.05147181137853458</v>
       </c>
       <c r="Q22">
-        <v>3.425169942220112</v>
+        <v>0.5009244294926667</v>
       </c>
       <c r="R22">
-        <v>30.826529479981</v>
+        <v>4.508319865434</v>
       </c>
       <c r="S22">
-        <v>0.01786038491147704</v>
+        <v>0.002138503715970925</v>
       </c>
       <c r="T22">
-        <v>0.01786038491147703</v>
+        <v>0.002138503715970926</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H23">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I23">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J23">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.466423</v>
       </c>
       <c r="O23">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124896</v>
       </c>
       <c r="P23">
-        <v>0.02431039990865746</v>
+        <v>0.01513234435124897</v>
       </c>
       <c r="Q23">
-        <v>1.342404705009</v>
+        <v>0.147268199001</v>
       </c>
       <c r="R23">
-        <v>12.081642345081</v>
+        <v>1.325413791009</v>
       </c>
       <c r="S23">
-        <v>0.006999905155917008</v>
+        <v>0.0006287047951064137</v>
       </c>
       <c r="T23">
-        <v>0.006999905155917009</v>
+        <v>0.0006287047951064138</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H24">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I24">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J24">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.04613266666667</v>
+        <v>31.33688666666667</v>
       </c>
       <c r="N24">
-        <v>33.138398</v>
+        <v>94.01066</v>
       </c>
       <c r="O24">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="P24">
-        <v>0.3266299850886302</v>
+        <v>0.5767873879736717</v>
       </c>
       <c r="Q24">
-        <v>18.03629847421178</v>
+        <v>5.613303389197779</v>
       </c>
       <c r="R24">
-        <v>162.326686267906</v>
+        <v>50.51973050278001</v>
       </c>
       <c r="S24">
-        <v>0.09404941610544092</v>
+        <v>0.02396383456248937</v>
       </c>
       <c r="T24">
-        <v>0.09404941610544092</v>
+        <v>0.02396383456248937</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H25">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I25">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J25">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05179266666666666</v>
+        <v>0.08259966666666667</v>
       </c>
       <c r="N25">
-        <v>0.155378</v>
+        <v>0.247799</v>
       </c>
       <c r="O25">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="P25">
-        <v>0.001531489658103001</v>
+        <v>0.001520331183213562</v>
       </c>
       <c r="Q25">
-        <v>0.08456787755177776</v>
+        <v>0.01479588555744445</v>
       </c>
       <c r="R25">
-        <v>0.761110897966</v>
+        <v>0.133162970017</v>
       </c>
       <c r="S25">
-        <v>0.0004409751544305551</v>
+        <v>6.316532870581171E-05</v>
       </c>
       <c r="T25">
-        <v>0.0004409751544305551</v>
+        <v>6.316532870581171E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H26">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I26">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J26">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.80071533333333</v>
+        <v>19.291955</v>
       </c>
       <c r="N26">
-        <v>59.40214599999999</v>
+        <v>57.875865</v>
       </c>
       <c r="O26">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133312</v>
       </c>
       <c r="P26">
-        <v>0.5854996992375019</v>
+        <v>0.3550881251133313</v>
       </c>
       <c r="Q26">
-        <v>32.33091820747355</v>
+        <v>3.455722884588333</v>
       </c>
       <c r="R26">
-        <v>290.978263867262</v>
+        <v>31.101505961295</v>
       </c>
       <c r="S26">
-        <v>0.168588027300238</v>
+        <v>0.01475287647189126</v>
       </c>
       <c r="T26">
-        <v>0.168588027300238</v>
+        <v>0.01475287647189126</v>
       </c>
     </row>
   </sheetData>
